--- a/test/results/01.BasicCodonUsage/prM/prM.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/prM/prM.RSCU.xlsx
@@ -253,28 +253,31 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>KF383119</t>
+  </si>
+  <si>
     <t>KU955594</t>
+  </si>
+  <si>
+    <t>KF383118</t>
   </si>
   <si>
     <t>LC002520</t>
   </si>
   <si>
-    <t>KF383118</t>
+    <t>KF383115</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>KF268948</t>
+  </si>
+  <si>
+    <t>KF268950</t>
   </si>
   <si>
     <t>KF268949</t>
   </si>
   <si>
-    <t>KF268948</t>
-  </si>
-  <si>
-    <t>KF383115</t>
-  </si>
-  <si>
-    <t>KF268950</t>
+    <t>KF383116</t>
   </si>
   <si>
     <t>HQ234500</t>
@@ -283,16 +286,13 @@
     <t>HQ234501</t>
   </si>
   <si>
-    <t>KF383116</t>
-  </si>
-  <si>
     <t>KU955595</t>
   </si>
   <si>
-    <t>KU955591</t>
+    <t>KU955592</t>
   </si>
   <si>
-    <t>KU955592</t>
+    <t>KU955591</t>
   </si>
   <si>
     <t>KX601166</t>
@@ -304,25 +304,25 @@
     <t>HQ234499</t>
   </si>
   <si>
+    <t>EU545988</t>
+  </si>
+  <si>
     <t>KU681082</t>
   </si>
   <si>
     <t>KU955593</t>
   </si>
   <si>
-    <t>EU545988</t>
-  </si>
-  <si>
     <t>KX694532</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX813683</t>
   </si>
   <si>
     <t>KX447517</t>
   </si>
   <si>
-    <t>KX813683</t>
+    <t>KU681081</t>
   </si>
   <si>
     <t>KU744693</t>
@@ -337,22 +337,19 @@
     <t>KU509998</t>
   </si>
   <si>
+    <t>KU527068</t>
+  </si>
+  <si>
     <t>KX051563</t>
   </si>
   <si>
-    <t>KU527068</t>
+    <t>KX838906</t>
   </si>
   <si>
     <t>KX673530</t>
   </si>
   <si>
-    <t>KX838906</t>
-  </si>
-  <si>
     <t>KX838904</t>
-  </si>
-  <si>
-    <t>KX842449</t>
   </si>
   <si>
     <t>KX832731</t>
@@ -361,10 +358,13 @@
     <t>KX838905</t>
   </si>
   <si>
-    <t>KU853013</t>
+    <t>KX842449</t>
   </si>
   <si>
     <t>KU853012</t>
+  </si>
+  <si>
+    <t>KU853013</t>
   </si>
   <si>
     <t>KU729217</t>
@@ -379,16 +379,16 @@
     <t>KU955590</t>
   </si>
   <si>
+    <t>KX766028</t>
+  </si>
+  <si>
     <t>KU740184</t>
   </si>
   <si>
-    <t>KX766028</t>
+    <t>KU820898</t>
   </si>
   <si>
     <t>KU761564</t>
-  </si>
-  <si>
-    <t>KU820898</t>
   </si>
   <si>
     <t>KX087101</t>
@@ -412,10 +412,10 @@
     <t>KU707826</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KU365780</t>
   </si>
   <si>
-    <t>KU365780</t>
+    <t>KU365777</t>
   </si>
   <si>
     <t>KU870645</t>
@@ -433,10 +433,10 @@
     <t>KU501216</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX766029</t>
   </si>
   <si>
-    <t>KX766029</t>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KX247632</t>
@@ -451,10 +451,10 @@
     <t>KX520666</t>
   </si>
   <si>
-    <t>KU729218</t>
+    <t>KX197205</t>
   </si>
   <si>
-    <t>KX197205</t>
+    <t>KU729218</t>
   </si>
   <si>
     <t>KU497555</t>
@@ -475,28 +475,28 @@
     <t>KU922960</t>
   </si>
   <si>
-    <t>KX198135</t>
+    <t>KX702400</t>
   </si>
   <si>
-    <t>KX702400</t>
+    <t>KX198135</t>
   </si>
   <si>
     <t>KX247646</t>
   </si>
   <si>
-    <t>KU820897</t>
+    <t>KX087102</t>
   </si>
   <si>
-    <t>KX087102</t>
+    <t>KU820897</t>
   </si>
   <si>
     <t>KX156775</t>
   </si>
   <si>
-    <t>KX156776</t>
+    <t>KX156774</t>
   </si>
   <si>
-    <t>KX156774</t>
+    <t>KX156776</t>
   </si>
   <si>
     <t>KX447510</t>
@@ -505,10 +505,10 @@
     <t>KX447511</t>
   </si>
   <si>
-    <t>KX447512</t>
+    <t>KX369547</t>
   </si>
   <si>
-    <t>KX369547</t>
+    <t>KX447512</t>
   </si>
   <si>
     <t>KX447513</t>
@@ -1929,22 +1929,22 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="C8">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="D8">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="E8">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="H8">
         <v>0.75</v>
@@ -1953,10 +1953,10 @@
         <v>1.25</v>
       </c>
       <c r="J8">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
         <v>0.67</v>
@@ -1983,13 +1983,13 @@
         <v>0.67</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1998,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="Z8">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AA8">
         <v>1.29</v>
@@ -2013,13 +2013,13 @@
         <v>0.43</v>
       </c>
       <c r="AD8">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AE8">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AF8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0.8</v>
@@ -2046,7 +2046,7 @@
         <v>1.64</v>
       </c>
       <c r="AO8">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -2055,49 +2055,49 @@
         <v>1.09</v>
       </c>
       <c r="AR8">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AT8">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AU8">
         <v>0.86</v>
       </c>
       <c r="AV8">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AW8">
         <v>0.86</v>
       </c>
       <c r="AX8">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AY8">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AZ8">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="BA8">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="BB8">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="BC8">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="BD8">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="BE8">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="BF8">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="BG8">
         <v>1.75</v>
@@ -2296,13 +2296,13 @@
         <v>1.07</v>
       </c>
       <c r="C10">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="D10">
         <v>0.53</v>
       </c>
       <c r="E10">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="F10">
         <v>1.33</v>
@@ -2317,16 +2317,16 @@
         <v>1.25</v>
       </c>
       <c r="J10">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L10">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>2.22</v>
@@ -2347,13 +2347,13 @@
         <v>0.67</v>
       </c>
       <c r="T10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2362,10 +2362,10 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AA10">
         <v>1.29</v>
@@ -2377,7 +2377,7 @@
         <v>0.43</v>
       </c>
       <c r="AD10">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AE10">
         <v>2</v>
@@ -2410,7 +2410,7 @@
         <v>1.64</v>
       </c>
       <c r="AO10">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -2419,49 +2419,49 @@
         <v>1.09</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AS10">
+        <v>1.71</v>
+      </c>
+      <c r="AT10">
+        <v>0.86</v>
+      </c>
+      <c r="AU10">
+        <v>0.86</v>
+      </c>
+      <c r="AV10">
+        <v>0.43</v>
+      </c>
+      <c r="AW10">
+        <v>0.86</v>
+      </c>
+      <c r="AX10">
         <v>1.29</v>
       </c>
-      <c r="AT10">
-        <v>1.29</v>
-      </c>
-      <c r="AU10">
-        <v>0.86</v>
-      </c>
-      <c r="AV10">
-        <v>0.86</v>
-      </c>
-      <c r="AW10">
-        <v>0.86</v>
-      </c>
-      <c r="AX10">
-        <v>0.86</v>
-      </c>
       <c r="AY10">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="AZ10">
-        <v>1.14</v>
+        <v>1.54</v>
       </c>
       <c r="BA10">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="BB10">
-        <v>0.57</v>
+        <v>0.31</v>
       </c>
       <c r="BC10">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="BD10">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="BE10">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
       <c r="BF10">
-        <v>1.2</v>
+        <v>1.82</v>
       </c>
       <c r="BG10">
         <v>1.75</v>
@@ -2475,22 +2475,22 @@
         <v>86</v>
       </c>
       <c r="B11">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="C11">
         <v>1.33</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="E11">
         <v>1.07</v>
       </c>
       <c r="F11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0.75</v>
@@ -2505,10 +2505,10 @@
         <v>0.75</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="N11">
         <v>2.22</v>
@@ -2562,10 +2562,10 @@
         <v>2.57</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG11">
         <v>0.8</v>
@@ -2625,25 +2625,25 @@
         <v>0.62</v>
       </c>
       <c r="AZ11">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="BA11">
         <v>1.54</v>
       </c>
       <c r="BB11">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="BC11">
         <v>0.36</v>
       </c>
       <c r="BD11">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="BE11">
         <v>1.09</v>
       </c>
       <c r="BF11">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="BG11">
         <v>1.75</v>
@@ -2657,16 +2657,16 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
       <c r="C12">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="D12">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="E12">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="F12">
         <v>1.33</v>
@@ -2687,10 +2687,10 @@
         <v>1.25</v>
       </c>
       <c r="L12">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="M12">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="N12">
         <v>1.33</v>
@@ -2705,10 +2705,10 @@
         <v>0.89</v>
       </c>
       <c r="R12">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="S12">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2762,10 +2762,10 @@
         <v>0.8</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AM12">
         <v>2.18</v>
@@ -2777,55 +2777,55 @@
         <v>1.64</v>
       </c>
       <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <v>0.55</v>
       </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
       <c r="AS12">
+        <v>1.71</v>
+      </c>
+      <c r="AT12">
+        <v>0.86</v>
+      </c>
+      <c r="AU12">
         <v>1.29</v>
       </c>
-      <c r="AT12">
-        <v>1.29</v>
-      </c>
-      <c r="AU12">
-        <v>0.86</v>
-      </c>
       <c r="AV12">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AW12">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AX12">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AY12">
         <v>1.14</v>
       </c>
       <c r="AZ12">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="BA12">
         <v>1.14</v>
       </c>
       <c r="BB12">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="BC12">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="BD12">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="BE12">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BF12">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="BG12">
         <v>1.75</v>
@@ -2839,16 +2839,16 @@
         <v>88</v>
       </c>
       <c r="B13">
-        <v>0.86</v>
+        <v>1.23</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="D13">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E13">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F13">
         <v>1.33</v>
@@ -2869,10 +2869,10 @@
         <v>1.25</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="N13">
         <v>1.33</v>
@@ -2887,19 +2887,19 @@
         <v>0.89</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="T13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -2908,13 +2908,13 @@
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="Z13">
         <v>0.86</v>
       </c>
       <c r="AA13">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="AB13">
         <v>0.43</v>
@@ -2959,55 +2959,55 @@
         <v>1.64</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AQ13">
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AT13">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AU13">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AV13">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AW13">
+        <v>0.86</v>
+      </c>
+      <c r="AX13">
         <v>1.29</v>
       </c>
-      <c r="AX13">
-        <v>0.86</v>
-      </c>
       <c r="AY13">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AZ13">
         <v>0.86</v>
       </c>
       <c r="BA13">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BB13">
         <v>0.86</v>
       </c>
       <c r="BC13">
-        <v>0.67</v>
+        <v>0.31</v>
       </c>
       <c r="BD13">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="BE13">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="BG13">
         <v>1.75</v>
@@ -3024,13 +3024,13 @@
         <v>0.86</v>
       </c>
       <c r="C14">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0.29</v>
       </c>
       <c r="E14">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="F14">
         <v>1.33</v>
@@ -3051,10 +3051,10 @@
         <v>1.25</v>
       </c>
       <c r="L14">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>1.33</v>
@@ -3069,19 +3069,19 @@
         <v>0.89</v>
       </c>
       <c r="R14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -3090,13 +3090,13 @@
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="Z14">
         <v>0.86</v>
       </c>
       <c r="AA14">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AB14">
         <v>0.43</v>
@@ -3126,10 +3126,10 @@
         <v>0.8</v>
       </c>
       <c r="AK14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM14">
         <v>2.18</v>
@@ -3156,31 +3156,31 @@
         <v>0.86</v>
       </c>
       <c r="AU14">
+        <v>0.43</v>
+      </c>
+      <c r="AV14">
+        <v>0.86</v>
+      </c>
+      <c r="AW14">
         <v>1.29</v>
       </c>
-      <c r="AV14">
-        <v>0.86</v>
-      </c>
-      <c r="AW14">
-        <v>0.43</v>
-      </c>
       <c r="AX14">
         <v>0.86</v>
       </c>
       <c r="AY14">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AZ14">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="BA14">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BB14">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="BC14">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="BD14">
         <v>0.67</v>
@@ -3189,7 +3189,7 @@
         <v>1.67</v>
       </c>
       <c r="BF14">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>1.75</v>
@@ -3415,10 +3415,10 @@
         <v>1.25</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="N16">
         <v>1.33</v>
@@ -3597,10 +3597,10 @@
         <v>1.25</v>
       </c>
       <c r="L17">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>1.33</v>
@@ -4295,22 +4295,22 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="C21">
-        <v>0.92</v>
+        <v>1.43</v>
       </c>
       <c r="D21">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="E21">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
       <c r="F21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0.5</v>
@@ -4370,7 +4370,7 @@
         <v>0.43</v>
       </c>
       <c r="AA21">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AB21">
         <v>0.86</v>
@@ -4379,13 +4379,13 @@
         <v>0.43</v>
       </c>
       <c r="AD21">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG21">
         <v>1.33</v>
@@ -4400,10 +4400,10 @@
         <v>1.33</v>
       </c>
       <c r="AK21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM21">
         <v>3.5</v>
@@ -4454,22 +4454,22 @@
         <v>0.86</v>
       </c>
       <c r="BC21">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="BD21">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BE21">
-        <v>0.73</v>
+        <v>1.2</v>
       </c>
       <c r="BF21">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="BG21">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="BH21">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4477,22 +4477,22 @@
         <v>97</v>
       </c>
       <c r="B22">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="C22">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="D22">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E22">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="H22">
         <v>0.5</v>
@@ -4549,25 +4549,25 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AA22">
-        <v>2.31</v>
+        <v>2.57</v>
       </c>
       <c r="AB22">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AC22">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AD22">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AE22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AG22">
         <v>1.33</v>
@@ -4582,10 +4582,10 @@
         <v>1.33</v>
       </c>
       <c r="AK22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM22">
         <v>3.5</v>
@@ -4606,52 +4606,52 @@
         <v>0.5</v>
       </c>
       <c r="AS22">
-        <v>2.31</v>
+        <v>1.71</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AU22">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AV22">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AW22">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AX22">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AY22">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AZ22">
         <v>1.14</v>
       </c>
       <c r="BA22">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BB22">
         <v>0.86</v>
       </c>
       <c r="BC22">
-        <v>0.4</v>
+        <v>0.73</v>
       </c>
       <c r="BD22">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BE22">
-        <v>1.2</v>
+        <v>0.73</v>
       </c>
       <c r="BF22">
-        <v>0.4</v>
+        <v>0.73</v>
       </c>
       <c r="BG22">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="BH22">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="23" spans="1:60">
@@ -4662,13 +4662,13 @@
         <v>1.43</v>
       </c>
       <c r="C23">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="D23">
         <v>0.29</v>
       </c>
       <c r="E23">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4731,25 +4731,25 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AA23">
-        <v>2.14</v>
+        <v>2.31</v>
       </c>
       <c r="AB23">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AC23">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AD23">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AE23">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AG23">
         <v>1.33</v>
@@ -4788,31 +4788,31 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>1.71</v>
+        <v>2.31</v>
       </c>
       <c r="AT23">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AU23">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AV23">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AW23">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AX23">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AY23">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AZ23">
         <v>1.14</v>
       </c>
       <c r="BA23">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BB23">
         <v>0.86</v>
@@ -5047,10 +5047,10 @@
         <v>1.5</v>
       </c>
       <c r="J25">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="K25">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="L25">
         <v>1.33</v>
@@ -5161,13 +5161,13 @@
         <v>1.29</v>
       </c>
       <c r="AV25">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AW25">
         <v>0.43</v>
       </c>
       <c r="AX25">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AY25">
         <v>0.57</v>
@@ -5411,10 +5411,10 @@
         <v>1.5</v>
       </c>
       <c r="J27">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="K27">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="L27">
         <v>1.33</v>
@@ -5525,13 +5525,13 @@
         <v>1.29</v>
       </c>
       <c r="AV27">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AW27">
         <v>0.43</v>
       </c>
       <c r="AX27">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AY27">
         <v>0.57</v>
@@ -7282,7 +7282,7 @@
         <v>0.43</v>
       </c>
       <c r="AA37">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AB37">
         <v>0.86</v>
@@ -7291,7 +7291,7 @@
         <v>0.43</v>
       </c>
       <c r="AD37">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="AE37">
         <v>1.2</v>
@@ -7464,7 +7464,7 @@
         <v>0.43</v>
       </c>
       <c r="AA38">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="AB38">
         <v>0.86</v>
@@ -7473,7 +7473,7 @@
         <v>0.43</v>
       </c>
       <c r="AD38">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AE38">
         <v>1.2</v>
@@ -8848,13 +8848,13 @@
         <v>1.33</v>
       </c>
       <c r="C46">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="D46">
         <v>0.53</v>
       </c>
       <c r="E46">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -9030,13 +9030,13 @@
         <v>1.33</v>
       </c>
       <c r="C47">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="D47">
         <v>0.53</v>
       </c>
       <c r="E47">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -12214,13 +12214,13 @@
         <v>0.8</v>
       </c>
       <c r="AG64">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AH64">
         <v>0.67</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AJ64">
         <v>1.33</v>
@@ -12268,16 +12268,16 @@
         <v>0.92</v>
       </c>
       <c r="AY64">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AZ64">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="BA64">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="BB64">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="BC64">
         <v>0</v>
@@ -12396,13 +12396,13 @@
         <v>0.8</v>
       </c>
       <c r="AG65">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AH65">
         <v>0.67</v>
       </c>
       <c r="AI65">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AJ65">
         <v>1.33</v>
@@ -12450,16 +12450,16 @@
         <v>0.92</v>
       </c>
       <c r="AY65">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AZ65">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="BA65">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="BB65">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="BC65">
         <v>0</v>
@@ -13363,13 +13363,13 @@
         <v>0.57</v>
       </c>
       <c r="AZ70">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="BA70">
         <v>1.43</v>
       </c>
       <c r="BB70">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="BC70">
         <v>0</v>
@@ -13545,13 +13545,13 @@
         <v>0.57</v>
       </c>
       <c r="AZ71">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="BA71">
         <v>1.43</v>
       </c>
       <c r="BB71">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="BC71">
         <v>0</v>
@@ -16519,10 +16519,10 @@
         <v>0.67</v>
       </c>
       <c r="L88">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="N88">
         <v>1.33</v>
@@ -16561,19 +16561,19 @@
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AB88">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AD88">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AE88">
         <v>1.2</v>
@@ -16701,10 +16701,10 @@
         <v>0.67</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="N89">
         <v>1.33</v>
@@ -16743,19 +16743,19 @@
         <v>0</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
       <c r="AA89">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="AC89">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="AD89">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="AE89">
         <v>1.2</v>

--- a/test/results/01.BasicCodonUsage/prM/prM.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/prM/prM.RSCU.xlsx
@@ -253,34 +253,34 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>KU955594</t>
+  </si>
+  <si>
     <t>KF383119</t>
   </si>
   <si>
-    <t>KU955594</t>
+    <t>LC002520</t>
   </si>
   <si>
     <t>KF383118</t>
   </si>
   <si>
-    <t>LC002520</t>
+    <t>KF383115</t>
   </si>
   <si>
-    <t>KF383115</t>
+    <t>KF268949</t>
+  </si>
+  <si>
+    <t>KF268950</t>
   </si>
   <si>
     <t>KF268948</t>
   </si>
   <si>
-    <t>KF268950</t>
-  </si>
-  <si>
-    <t>KF268949</t>
+    <t>HQ234500</t>
   </si>
   <si>
     <t>KF383116</t>
-  </si>
-  <si>
-    <t>HQ234500</t>
   </si>
   <si>
     <t>HQ234501</t>
@@ -289,10 +289,10 @@
     <t>KU955595</t>
   </si>
   <si>
-    <t>KU955592</t>
+    <t>KU955591</t>
   </si>
   <si>
-    <t>KU955591</t>
+    <t>KU955592</t>
   </si>
   <si>
     <t>KX601166</t>
@@ -301,16 +301,16 @@
     <t>KF383117</t>
   </si>
   <si>
+    <t>KU681082</t>
+  </si>
+  <si>
     <t>HQ234499</t>
   </si>
   <si>
-    <t>EU545988</t>
+    <t>KU955593</t>
   </si>
   <si>
-    <t>KU681082</t>
-  </si>
-  <si>
-    <t>KU955593</t>
+    <t>EU545988</t>
   </si>
   <si>
     <t>KX694532</t>
@@ -319,10 +319,10 @@
     <t>KX813683</t>
   </si>
   <si>
-    <t>KX447517</t>
+    <t>KU681081</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX447517</t>
   </si>
   <si>
     <t>KU744693</t>
@@ -331,16 +331,16 @@
     <t>KX197192</t>
   </si>
   <si>
+    <t>KU509998</t>
+  </si>
+  <si>
     <t>KU321639</t>
   </si>
   <si>
-    <t>KU509998</t>
+    <t>KX051563</t>
   </si>
   <si>
     <t>KU527068</t>
-  </si>
-  <si>
-    <t>KX051563</t>
   </si>
   <si>
     <t>KX838906</t>
@@ -367,31 +367,31 @@
     <t>KU853013</t>
   </si>
   <si>
-    <t>KU729217</t>
+    <t>KX280026</t>
   </si>
   <si>
-    <t>KX280026</t>
+    <t>KU729217</t>
   </si>
   <si>
     <t>KX056898</t>
   </si>
   <si>
+    <t>KX766028</t>
+  </si>
+  <si>
     <t>KU955590</t>
   </si>
   <si>
-    <t>KX766028</t>
-  </si>
-  <si>
     <t>KU740184</t>
-  </si>
-  <si>
-    <t>KU820898</t>
   </si>
   <si>
     <t>KU761564</t>
   </si>
   <si>
     <t>KX087101</t>
+  </si>
+  <si>
+    <t>KU820898</t>
   </si>
   <si>
     <t>KU365778</t>
@@ -409,19 +409,16 @@
     <t>KU365779</t>
   </si>
   <si>
+    <t>KU365777</t>
+  </si>
+  <si>
     <t>KU707826</t>
   </si>
   <si>
     <t>KU365780</t>
   </si>
   <si>
-    <t>KU365777</t>
-  </si>
-  <si>
     <t>KU870645</t>
-  </si>
-  <si>
-    <t>KX694534</t>
   </si>
   <si>
     <t>KX262887</t>
@@ -430,16 +427,19 @@
     <t>KU501217</t>
   </si>
   <si>
+    <t>KX694534</t>
+  </si>
+  <si>
     <t>KU501216</t>
   </si>
   <si>
     <t>KX766029</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX247632</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KX446951</t>
@@ -451,10 +451,10 @@
     <t>KX520666</t>
   </si>
   <si>
-    <t>KX197205</t>
+    <t>KU729218</t>
   </si>
   <si>
-    <t>KU729218</t>
+    <t>KX197205</t>
   </si>
   <si>
     <t>KU497555</t>
@@ -475,10 +475,10 @@
     <t>KU922960</t>
   </si>
   <si>
-    <t>KX702400</t>
+    <t>KX198135</t>
   </si>
   <si>
-    <t>KX198135</t>
+    <t>KX702400</t>
   </si>
   <si>
     <t>KX247646</t>
@@ -496,10 +496,10 @@
     <t>KX156774</t>
   </si>
   <si>
-    <t>KX156776</t>
+    <t>KX447510</t>
   </si>
   <si>
-    <t>KX447510</t>
+    <t>KX156776</t>
   </si>
   <si>
     <t>KX447511</t>
@@ -1565,16 +1565,16 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="C6">
-        <v>2.22</v>
+        <v>2.29</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E6">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
       <c r="F6">
         <v>1.33</v>
@@ -1619,13 +1619,13 @@
         <v>0.33</v>
       </c>
       <c r="T6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0.75</v>
@@ -1634,22 +1634,22 @@
         <v>1.25</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AD6">
-        <v>3.5</v>
+        <v>2.57</v>
       </c>
       <c r="AE6">
         <v>2</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -1676,22 +1676,22 @@
         <v>1</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AN6">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AO6">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>1.29</v>
@@ -1703,43 +1703,43 @@
         <v>0.86</v>
       </c>
       <c r="AV6">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AW6">
         <v>1.29</v>
       </c>
       <c r="AX6">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AY6">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="AZ6">
         <v>1.14</v>
       </c>
       <c r="BA6">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="BB6">
         <v>0.57</v>
       </c>
       <c r="BC6">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="BD6">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="BF6">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="BH6">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -1747,16 +1747,16 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="C7">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="D7">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="F7">
         <v>1.33</v>
@@ -1801,13 +1801,13 @@
         <v>0.33</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W7">
         <v>0.75</v>
@@ -1816,22 +1816,22 @@
         <v>1.25</v>
       </c>
       <c r="Y7">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AD7">
-        <v>2.57</v>
+        <v>3.5</v>
       </c>
       <c r="AE7">
         <v>2</v>
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <v>1</v>
@@ -1858,22 +1858,22 @@
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AO7">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AP7">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS7">
         <v>1.29</v>
@@ -1885,43 +1885,43 @@
         <v>0.86</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AW7">
         <v>1.29</v>
       </c>
       <c r="AX7">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AY7">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="AZ7">
         <v>1.14</v>
       </c>
       <c r="BA7">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="BB7">
         <v>0.57</v>
       </c>
       <c r="BC7">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="BE7">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="BG7">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="BH7">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:60">
@@ -2111,22 +2111,22 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="C9">
         <v>1.33</v>
       </c>
       <c r="D9">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="E9">
         <v>1.07</v>
       </c>
       <c r="F9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0.75</v>
@@ -2141,10 +2141,10 @@
         <v>0.75</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="N9">
         <v>2.22</v>
@@ -2198,10 +2198,10 @@
         <v>2.57</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG9">
         <v>0.8</v>
@@ -2261,25 +2261,25 @@
         <v>0.62</v>
       </c>
       <c r="AZ9">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="BA9">
         <v>1.54</v>
       </c>
       <c r="BB9">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="BC9">
         <v>0.36</v>
       </c>
       <c r="BD9">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="BE9">
         <v>1.09</v>
       </c>
       <c r="BF9">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="BG9">
         <v>1.75</v>
@@ -2475,22 +2475,22 @@
         <v>86</v>
       </c>
       <c r="B11">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="C11">
         <v>1.33</v>
       </c>
       <c r="D11">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="E11">
         <v>1.07</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="H11">
         <v>0.75</v>
@@ -2505,10 +2505,10 @@
         <v>0.75</v>
       </c>
       <c r="L11">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>2.22</v>
@@ -2562,10 +2562,10 @@
         <v>2.57</v>
       </c>
       <c r="AE11">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AF11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0.8</v>
@@ -2625,25 +2625,25 @@
         <v>0.62</v>
       </c>
       <c r="AZ11">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="BA11">
         <v>1.54</v>
       </c>
       <c r="BB11">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="BC11">
         <v>0.36</v>
       </c>
       <c r="BD11">
-        <v>1.09</v>
+        <v>0.73</v>
       </c>
       <c r="BE11">
         <v>1.09</v>
       </c>
       <c r="BF11">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="BG11">
         <v>1.75</v>
@@ -2657,16 +2657,16 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>0.86</v>
+        <v>1.23</v>
       </c>
       <c r="C12">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="D12">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E12">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="F12">
         <v>1.33</v>
@@ -2687,10 +2687,10 @@
         <v>1.25</v>
       </c>
       <c r="L12">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="M12">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="N12">
         <v>1.33</v>
@@ -2705,10 +2705,10 @@
         <v>0.89</v>
       </c>
       <c r="R12">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="S12">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2762,10 +2762,10 @@
         <v>0.8</v>
       </c>
       <c r="AK12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM12">
         <v>2.18</v>
@@ -2777,55 +2777,55 @@
         <v>1.64</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AQ12">
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AT12">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AU12">
+        <v>0.86</v>
+      </c>
+      <c r="AV12">
+        <v>0.43</v>
+      </c>
+      <c r="AW12">
+        <v>0.86</v>
+      </c>
+      <c r="AX12">
         <v>1.29</v>
-      </c>
-      <c r="AV12">
-        <v>0.86</v>
-      </c>
-      <c r="AW12">
-        <v>0.43</v>
-      </c>
-      <c r="AX12">
-        <v>0.86</v>
       </c>
       <c r="AY12">
         <v>1.14</v>
       </c>
       <c r="AZ12">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="BA12">
         <v>1.14</v>
       </c>
       <c r="BB12">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="BC12">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="BD12">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="BE12">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BF12">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="BG12">
         <v>1.75</v>
@@ -2839,16 +2839,16 @@
         <v>88</v>
       </c>
       <c r="B13">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
       <c r="C13">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="D13">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="E13">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="F13">
         <v>1.33</v>
@@ -2869,10 +2869,10 @@
         <v>1.25</v>
       </c>
       <c r="L13">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="M13">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="N13">
         <v>1.33</v>
@@ -2887,10 +2887,10 @@
         <v>0.89</v>
       </c>
       <c r="R13">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="S13">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -2944,10 +2944,10 @@
         <v>0.8</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AM13">
         <v>2.18</v>
@@ -2959,55 +2959,55 @@
         <v>1.64</v>
       </c>
       <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
         <v>0.55</v>
       </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
       <c r="AS13">
+        <v>1.71</v>
+      </c>
+      <c r="AT13">
+        <v>0.86</v>
+      </c>
+      <c r="AU13">
         <v>1.29</v>
       </c>
-      <c r="AT13">
-        <v>1.29</v>
-      </c>
-      <c r="AU13">
-        <v>0.86</v>
-      </c>
       <c r="AV13">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AW13">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AX13">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AY13">
         <v>1.14</v>
       </c>
       <c r="AZ13">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="BA13">
         <v>1.14</v>
       </c>
       <c r="BB13">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="BC13">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="BD13">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="BE13">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BF13">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="BG13">
         <v>1.75</v>
@@ -3415,10 +3415,10 @@
         <v>1.25</v>
       </c>
       <c r="L16">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>1.33</v>
@@ -3597,10 +3597,10 @@
         <v>1.25</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="N17">
         <v>1.33</v>
@@ -4113,16 +4113,16 @@
         <v>95</v>
       </c>
       <c r="B20">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="C20">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="D20">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E20">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="F20">
         <v>1.33</v>
@@ -4137,16 +4137,16 @@
         <v>1.5</v>
       </c>
       <c r="J20">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="K20">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="L20">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="M20">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="N20">
         <v>1.33</v>
@@ -4161,10 +4161,10 @@
         <v>0.44</v>
       </c>
       <c r="R20">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="S20">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T20">
         <v>1.67</v>
@@ -4188,7 +4188,7 @@
         <v>0.43</v>
       </c>
       <c r="AA20">
-        <v>1.29</v>
+        <v>2.57</v>
       </c>
       <c r="AB20">
         <v>0.86</v>
@@ -4197,7 +4197,7 @@
         <v>0.43</v>
       </c>
       <c r="AD20">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="AE20">
         <v>1</v>
@@ -4218,10 +4218,10 @@
         <v>1.33</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM20">
         <v>3.5</v>
@@ -4248,19 +4248,19 @@
         <v>0.86</v>
       </c>
       <c r="AU20">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AV20">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AW20">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AX20">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AY20">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AZ20">
         <v>1.14</v>
@@ -4269,25 +4269,25 @@
         <v>1.14</v>
       </c>
       <c r="BB20">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="BC20">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="BD20">
         <v>1.82</v>
       </c>
       <c r="BE20">
-        <v>1.45</v>
+        <v>0.73</v>
       </c>
       <c r="BF20">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="BG20">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="BH20">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="21" spans="1:60">
@@ -4298,19 +4298,19 @@
         <v>1.43</v>
       </c>
       <c r="C21">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="D21">
         <v>0.29</v>
       </c>
       <c r="E21">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="H21">
         <v>0.5</v>
@@ -4319,16 +4319,16 @@
         <v>1.5</v>
       </c>
       <c r="J21">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="K21">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="L21">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="M21">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="N21">
         <v>1.33</v>
@@ -4343,10 +4343,10 @@
         <v>0.44</v>
       </c>
       <c r="R21">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="S21">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="T21">
         <v>1.67</v>
@@ -4370,7 +4370,7 @@
         <v>0.43</v>
       </c>
       <c r="AA21">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="AB21">
         <v>0.86</v>
@@ -4379,13 +4379,13 @@
         <v>0.43</v>
       </c>
       <c r="AD21">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AE21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG21">
         <v>1.33</v>
@@ -4430,19 +4430,19 @@
         <v>0.86</v>
       </c>
       <c r="AU21">
+        <v>0.86</v>
+      </c>
+      <c r="AV21">
+        <v>0.43</v>
+      </c>
+      <c r="AW21">
+        <v>0.86</v>
+      </c>
+      <c r="AX21">
         <v>1.29</v>
       </c>
-      <c r="AV21">
-        <v>0.86</v>
-      </c>
-      <c r="AW21">
-        <v>0.43</v>
-      </c>
-      <c r="AX21">
-        <v>0.86</v>
-      </c>
       <c r="AY21">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AZ21">
         <v>1.14</v>
@@ -4451,25 +4451,25 @@
         <v>1.14</v>
       </c>
       <c r="BB21">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="BC21">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="BD21">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BE21">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="BF21">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="BG21">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="BH21">
-        <v>0.67</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4477,22 +4477,22 @@
         <v>97</v>
       </c>
       <c r="B22">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="C22">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="D22">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="E22">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="F22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0.5</v>
@@ -4549,25 +4549,25 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AA22">
-        <v>2.57</v>
+        <v>2.31</v>
       </c>
       <c r="AB22">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AC22">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AD22">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AF22">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AG22">
         <v>1.33</v>
@@ -4582,10 +4582,10 @@
         <v>1.33</v>
       </c>
       <c r="AK22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <v>3.5</v>
@@ -4606,52 +4606,52 @@
         <v>0.5</v>
       </c>
       <c r="AS22">
-        <v>1.71</v>
+        <v>2.31</v>
       </c>
       <c r="AT22">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AU22">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AV22">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AW22">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AX22">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AY22">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AZ22">
         <v>1.14</v>
       </c>
       <c r="BA22">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BB22">
         <v>0.86</v>
       </c>
       <c r="BC22">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="BD22">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BE22">
-        <v>0.73</v>
+        <v>1.2</v>
       </c>
       <c r="BF22">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="BG22">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="BH22">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="23" spans="1:60">
@@ -4662,13 +4662,13 @@
         <v>1.43</v>
       </c>
       <c r="C23">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="D23">
         <v>0.29</v>
       </c>
       <c r="E23">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4731,25 +4731,25 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AA23">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AB23">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AC23">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AD23">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="AE23">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AF23">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AG23">
         <v>1.33</v>
@@ -4788,31 +4788,31 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>2.31</v>
+        <v>1.71</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AU23">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AV23">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AW23">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AX23">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AY23">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AZ23">
         <v>1.14</v>
       </c>
       <c r="BA23">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BB23">
         <v>0.86</v>
@@ -5217,10 +5217,10 @@
         <v>1.07</v>
       </c>
       <c r="F26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0.5</v>
@@ -5280,7 +5280,7 @@
         <v>0.43</v>
       </c>
       <c r="AA26">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AB26">
         <v>0.86</v>
@@ -5289,13 +5289,13 @@
         <v>0.43</v>
       </c>
       <c r="AD26">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AE26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AG26">
         <v>1.33</v>
@@ -5310,10 +5310,10 @@
         <v>1.33</v>
       </c>
       <c r="AK26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM26">
         <v>3.5</v>
@@ -5334,22 +5334,22 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="AT26">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU26">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AV26">
-        <v>0.92</v>
+        <v>1.29</v>
       </c>
       <c r="AW26">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AX26">
-        <v>0.92</v>
+        <v>0.43</v>
       </c>
       <c r="AY26">
         <v>0.57</v>
@@ -5364,13 +5364,13 @@
         <v>0.86</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BD26">
         <v>2.22</v>
       </c>
       <c r="BE26">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="BF26">
         <v>0.44</v>
@@ -5399,10 +5399,10 @@
         <v>1.07</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="H27">
         <v>0.5</v>
@@ -5462,7 +5462,7 @@
         <v>0.43</v>
       </c>
       <c r="AA27">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AB27">
         <v>0.86</v>
@@ -5471,13 +5471,13 @@
         <v>0.43</v>
       </c>
       <c r="AD27">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AF27">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AG27">
         <v>1.33</v>
@@ -5492,10 +5492,10 @@
         <v>1.33</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM27">
         <v>3.5</v>
@@ -5516,22 +5516,22 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AT27">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AU27">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AV27">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AW27">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AX27">
-        <v>0.43</v>
+        <v>0.92</v>
       </c>
       <c r="AY27">
         <v>0.57</v>
@@ -5546,13 +5546,13 @@
         <v>0.86</v>
       </c>
       <c r="BC27">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="BD27">
         <v>2.22</v>
       </c>
       <c r="BE27">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="BF27">
         <v>0.44</v>
@@ -8165,10 +8165,10 @@
         <v>0.44</v>
       </c>
       <c r="R42">
+        <v>0.8</v>
+      </c>
+      <c r="S42">
         <v>1.2</v>
-      </c>
-      <c r="S42">
-        <v>0.8</v>
       </c>
       <c r="T42">
         <v>1.67</v>
@@ -8264,13 +8264,13 @@
         <v>0.92</v>
       </c>
       <c r="AY42">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AZ42">
         <v>1.14</v>
       </c>
       <c r="BA42">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BB42">
         <v>0.86</v>
@@ -8347,10 +8347,10 @@
         <v>0.44</v>
       </c>
       <c r="R43">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="S43">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="T43">
         <v>1.67</v>
@@ -8446,13 +8446,13 @@
         <v>0.92</v>
       </c>
       <c r="AY43">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AZ43">
         <v>1.14</v>
       </c>
       <c r="BA43">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BB43">
         <v>0.86</v>
@@ -9394,13 +9394,13 @@
         <v>1.33</v>
       </c>
       <c r="C49">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="D49">
         <v>0.53</v>
       </c>
       <c r="E49">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -9487,13 +9487,13 @@
         <v>1.33</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AI49">
         <v>0.67</v>
       </c>
       <c r="AJ49">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AK49">
         <v>1.5</v>
@@ -9541,13 +9541,13 @@
         <v>0.57</v>
       </c>
       <c r="AZ49">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BA49">
         <v>1.43</v>
       </c>
       <c r="BB49">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="BC49">
         <v>0</v>
@@ -9576,13 +9576,13 @@
         <v>1.33</v>
       </c>
       <c r="C50">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="D50">
         <v>0.53</v>
       </c>
       <c r="E50">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -9669,13 +9669,13 @@
         <v>1.33</v>
       </c>
       <c r="AH50">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AI50">
         <v>0.67</v>
       </c>
       <c r="AJ50">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AK50">
         <v>1.5</v>
@@ -9723,13 +9723,13 @@
         <v>0.57</v>
       </c>
       <c r="AZ50">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BA50">
         <v>1.43</v>
       </c>
       <c r="BB50">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="BC50">
         <v>0</v>
@@ -10695,10 +10695,10 @@
         <v>0.67</v>
       </c>
       <c r="L56">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="M56">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="N56">
         <v>1.33</v>
@@ -10877,10 +10877,10 @@
         <v>0.67</v>
       </c>
       <c r="L57">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="M57">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="N57">
         <v>1.33</v>
@@ -12396,13 +12396,13 @@
         <v>0.8</v>
       </c>
       <c r="AG65">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AH65">
         <v>0.67</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AJ65">
         <v>1.33</v>
@@ -12450,16 +12450,16 @@
         <v>0.92</v>
       </c>
       <c r="AY65">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AZ65">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="BA65">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="BB65">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="BC65">
         <v>0</v>
@@ -12578,13 +12578,13 @@
         <v>0.8</v>
       </c>
       <c r="AG66">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AH66">
         <v>0.67</v>
       </c>
       <c r="AI66">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AJ66">
         <v>1.33</v>
@@ -12632,16 +12632,16 @@
         <v>0.92</v>
       </c>
       <c r="AY66">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AZ66">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="BA66">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="BB66">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="BC66">
         <v>0</v>
@@ -13363,13 +13363,13 @@
         <v>0.57</v>
       </c>
       <c r="AZ70">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="BA70">
         <v>1.43</v>
       </c>
       <c r="BB70">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="BC70">
         <v>0</v>
@@ -13545,13 +13545,13 @@
         <v>0.57</v>
       </c>
       <c r="AZ71">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="BA71">
         <v>1.43</v>
       </c>
       <c r="BB71">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="BC71">
         <v>0</v>
@@ -15946,10 +15946,10 @@
         <v>1.33</v>
       </c>
       <c r="C85">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="D85">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="E85">
         <v>1.07</v>
@@ -15982,13 +15982,13 @@
         <v>1.33</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="P85">
         <v>1.78</v>
       </c>
       <c r="Q85">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
       <c r="R85">
         <v>1.2</v>
@@ -16128,10 +16128,10 @@
         <v>1.33</v>
       </c>
       <c r="C86">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="D86">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="E86">
         <v>1.07</v>
@@ -16164,13 +16164,13 @@
         <v>1.33</v>
       </c>
       <c r="O86">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="P86">
         <v>1.78</v>
       </c>
       <c r="Q86">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
       <c r="R86">
         <v>1.2</v>
